--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value826.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value826.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7383600821374169</v>
+        <v>1.489800810813904</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>3.749367952346802</v>
       </c>
       <c r="C1">
-        <v>3.138133542057778</v>
+        <v>1.783222913742065</v>
       </c>
       <c r="D1">
-        <v>1.843930671135847</v>
+        <v>1.191227674484253</v>
       </c>
       <c r="E1">
-        <v>1.443077028184039</v>
+        <v>0.7522534132003784</v>
       </c>
     </row>
   </sheetData>
